--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-0.1/percents/scores-5.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-0.1/percents/scores-5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="44">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,36 +43,30 @@
     <t>worst</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>worse</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>weird</t>
   </si>
   <si>
@@ -82,7 +76,7 @@
     <t>creepy</t>
   </si>
   <si>
-    <t>frustrating</t>
+    <t>afraid</t>
   </si>
   <si>
     <t>terrifying</t>
@@ -94,9 +88,6 @@
     <t>dangerous</t>
   </si>
   <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
     <t>0.95-negative</t>
   </si>
   <si>
@@ -121,37 +112,19 @@
     <t>excellent</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>decent</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>netflix</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>irony</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -530,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS21"/>
+  <dimension ref="A1:BS18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,28 +511,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="S1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AB1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AK1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AT1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="BC1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="BL1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -761,7 +734,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02069610448258898</v>
+        <v>0.02083281725798018</v>
       </c>
       <c r="C3">
         <v>17</v>
@@ -782,16 +755,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K3">
-        <v>0.01260656627074714</v>
+        <v>0.0103537798688597</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -803,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.02453600448901895</v>
+        <v>0.02469845623283158</v>
       </c>
       <c r="U3">
         <v>17</v>
@@ -830,16 +803,16 @@
         <v>0</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC3">
-        <v>0.01484843869434585</v>
+        <v>0.0120925422891715</v>
       </c>
       <c r="AD3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -851,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.03014816603687815</v>
+        <v>0.03034823627299902</v>
       </c>
       <c r="AM3">
         <v>17</v>
@@ -878,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AU3">
-        <v>0.1583262529593789</v>
+        <v>0.0146338104419349</v>
       </c>
       <c r="AV3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AW3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -899,13 +872,13 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.2934256202145035</v>
+        <v>0.03938788433726691</v>
       </c>
       <c r="BE3">
         <v>17</v>
@@ -926,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BM3">
-        <v>0.1371427231588079</v>
+        <v>0.01869983948635634</v>
       </c>
       <c r="BN3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BO3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -947,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -955,13 +928,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.005706477176832755</v>
+        <v>0.004620669727437648</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -973,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>0.009181886910596859</v>
+        <v>0.009242531566600166</v>
       </c>
       <c r="L4">
         <v>7</v>
@@ -1003,13 +976,13 @@
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.006613963311267059</v>
+        <v>0.005446531040312328</v>
       </c>
       <c r="U4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1021,13 +994,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC4">
-        <v>0.01086287112227831</v>
+        <v>0.01093499197431782</v>
       </c>
       <c r="AD4">
         <v>7</v>
@@ -1051,13 +1024,13 @@
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.007940289200055657</v>
+        <v>0.006653559112975322</v>
       </c>
       <c r="AM4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1069,13 +1042,13 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AU4">
-        <v>0.1191738107788095</v>
+        <v>0.01340858795482823</v>
       </c>
       <c r="AV4">
         <v>7</v>
@@ -1099,13 +1072,13 @@
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.07644598884356243</v>
+        <v>0.008584804029236113</v>
       </c>
       <c r="BE4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -1117,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BM4">
-        <v>0.1068207929845952</v>
+        <v>0.0173663415236449</v>
       </c>
       <c r="BN4">
         <v>7</v>
@@ -1149,13 +1122,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.004590266116181153</v>
+        <v>0.003462659189541754</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1170,10 +1143,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.006883564685820944</v>
+        <v>0.006929055568913642</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -1197,13 +1170,13 @@
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.00541032142890966</v>
+        <v>0.004071393526560953</v>
       </c>
       <c r="U5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1218,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AC5">
-        <v>0.008133613480356912</v>
+        <v>0.008187739227065069</v>
       </c>
       <c r="AD5">
         <v>5</v>
@@ -1245,13 +1218,13 @@
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.006608863809051325</v>
+        <v>0.004961082172973631</v>
       </c>
       <c r="AM5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1266,10 +1239,10 @@
         <v>0</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AU5">
-        <v>0.091804929126099</v>
+        <v>0.01002735380436331</v>
       </c>
       <c r="AV5">
         <v>5</v>
@@ -1293,13 +1266,13 @@
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.06498023938971884</v>
+        <v>0.006384584007233913</v>
       </c>
       <c r="BE5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -1314,10 +1287,10 @@
         <v>0</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BM5">
-        <v>0.08517432999601394</v>
+        <v>0.0129707371280405</v>
       </c>
       <c r="BN5">
         <v>5</v>
@@ -1343,7 +1316,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.003439849090009167</v>
+        <v>0.003462659189541754</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1364,10 +1337,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>0.005734403573432988</v>
+        <v>0.00577231757007038</v>
       </c>
       <c r="L6">
         <v>4</v>
@@ -1391,7 +1364,7 @@
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.004044201210330426</v>
+        <v>0.004071393526560953</v>
       </c>
       <c r="U6">
         <v>2</v>
@@ -1412,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AC6">
-        <v>0.006768984659396213</v>
+        <v>0.006814112853438696</v>
       </c>
       <c r="AD6">
         <v>4</v>
@@ -1439,7 +1412,7 @@
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.004927485078492266</v>
+        <v>0.004961082172973631</v>
       </c>
       <c r="AM6">
         <v>2</v>
@@ -1460,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AU6">
-        <v>0.07812048829974376</v>
+        <v>0.008336736729130852</v>
       </c>
       <c r="AV6">
         <v>4</v>
@@ -1487,7 +1460,7 @@
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.04866271218794851</v>
+        <v>0.006384584007233913</v>
       </c>
       <c r="BE6">
         <v>2</v>
@@ -1508,10 +1481,10 @@
         <v>0</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="BM6">
-        <v>0.07435109850172335</v>
+        <v>0.0107729349302383</v>
       </c>
       <c r="BN6">
         <v>4</v>
@@ -1537,7 +1510,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.003439849090009167</v>
+        <v>0.003462659189541754</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1558,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.005711599596419397</v>
+        <v>0.005749572721778518</v>
       </c>
       <c r="L7">
         <v>4</v>
@@ -1585,7 +1558,7 @@
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.004044201210330426</v>
+        <v>0.004071393526560953</v>
       </c>
       <c r="U7">
         <v>2</v>
@@ -1606,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC7">
-        <v>0.006660665768581655</v>
+        <v>0.006706074824052353</v>
       </c>
       <c r="AD7">
         <v>4</v>
@@ -1633,7 +1606,7 @@
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.004927485078492266</v>
+        <v>0.004961082172973631</v>
       </c>
       <c r="AM7">
         <v>2</v>
@@ -1654,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AU7">
-        <v>0.07621960800124745</v>
+        <v>0.008104039435067958</v>
       </c>
       <c r="AV7">
         <v>4</v>
@@ -1681,7 +1654,7 @@
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.04866271218794851</v>
+        <v>0.006384584007233913</v>
       </c>
       <c r="BE7">
         <v>2</v>
@@ -1702,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BM7">
-        <v>0.07220333419306429</v>
+        <v>0.01034078281269293</v>
       </c>
       <c r="BN7">
         <v>4</v>
@@ -1731,7 +1704,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.003439849090009167</v>
+        <v>0.003462659189541754</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1752,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.004585242461045031</v>
+        <v>0.004615579571227118</v>
       </c>
       <c r="L8">
         <v>3</v>
@@ -1779,7 +1752,7 @@
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.004044201210330426</v>
+        <v>0.004071393526560953</v>
       </c>
       <c r="U8">
         <v>2</v>
@@ -1800,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AC8">
-        <v>0.005404355838435515</v>
+        <v>0.005440486479812322</v>
       </c>
       <c r="AD8">
         <v>3</v>
@@ -1827,7 +1800,7 @@
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.004927485078492266</v>
+        <v>0.004961082172973631</v>
       </c>
       <c r="AM8">
         <v>2</v>
@@ -1848,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AU8">
-        <v>0.06443604747338855</v>
+        <v>0.006646119653898392</v>
       </c>
       <c r="AV8">
         <v>3</v>
@@ -1875,7 +1848,7 @@
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.04866271218794851</v>
+        <v>0.006384584007233913</v>
       </c>
       <c r="BE8">
         <v>2</v>
@@ -1896,10 +1869,10 @@
         <v>0</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="BM8">
-        <v>0.06352786700743275</v>
+        <v>0.008575132732436104</v>
       </c>
       <c r="BN8">
         <v>3</v>
@@ -1925,7 +1898,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.003439849090009167</v>
+        <v>0.003405797068812099</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1943,13 +1916,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.003436081348657075</v>
+        <v>0.003458841572383855</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -1973,7 +1946,7 @@
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.004044201210330426</v>
+        <v>0.003801298453095093</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -1991,13 +1964,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC9">
-        <v>0.004039727017474817</v>
+        <v>0.004066860106185948</v>
       </c>
       <c r="AD9">
         <v>2</v>
@@ -2021,7 +1994,7 @@
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.004927485078492266</v>
+        <v>0.004379338937816393</v>
       </c>
       <c r="AM9">
         <v>2</v>
@@ -2039,13 +2012,13 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AU9">
-        <v>0.05075160664703331</v>
+        <v>0.004955502578665933</v>
       </c>
       <c r="AV9">
         <v>2</v>
@@ -2069,7 +2042,7 @@
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.04866271218794851</v>
+        <v>0.005304203713370472</v>
       </c>
       <c r="BE9">
         <v>2</v>
@@ -2087,13 +2060,13 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="BM9">
-        <v>0.05270463551314215</v>
+        <v>0.006377330534633905</v>
       </c>
       <c r="BN9">
         <v>2</v>
@@ -2119,13 +2092,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.003439849090009167</v>
+        <v>0.002304648651645859</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2140,16 +2113,16 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.002286920236269118</v>
+        <v>0.003356489755070476</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2161,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.004044201210330426</v>
+        <v>0.002696256012809578</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -2188,16 +2161,16 @@
         <v>0</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC10">
-        <v>0.002675098196514118</v>
+        <v>0.0035806889739474</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -2209,19 +2182,19 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.004927485078492266</v>
+        <v>0.003268605232971938</v>
       </c>
       <c r="AM10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -2236,16 +2209,16 @@
         <v>0</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AU10">
-        <v>0.03706716582067807</v>
+        <v>0.003908364755382906</v>
       </c>
       <c r="AV10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX10">
         <v>1</v>
@@ -2257,19 +2230,19 @@
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BC10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.04866271218794851</v>
+        <v>0.004184363985231712</v>
       </c>
       <c r="BE10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG10">
         <v>0</v>
@@ -2284,16 +2257,16 @@
         <v>0</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BM10">
-        <v>0.04188140401885155</v>
+        <v>0.004432646005679714</v>
       </c>
       <c r="BN10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP10">
         <v>1</v>
@@ -2305,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:71">
@@ -2313,7 +2286,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.002289432063837179</v>
+        <v>0.002304648651645859</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2334,16 +2307,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.002286920236269118</v>
+        <v>0.003231393089465236</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -2355,13 +2328,13 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.002678080991751191</v>
+        <v>0.002696256012809578</v>
       </c>
       <c r="U11">
         <v>1</v>
@@ -2382,16 +2355,16 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AC11">
-        <v>0.002675098196514118</v>
+        <v>0.002986479812322509</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -2403,13 +2376,13 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.003246106347933208</v>
+        <v>0.003268605232971938</v>
       </c>
       <c r="AM11">
         <v>1</v>
@@ -2430,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AU11">
-        <v>0.03706716582067807</v>
+        <v>0.003264885503433472</v>
       </c>
       <c r="AV11">
         <v>1</v>
@@ -2457,7 +2430,7 @@
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.03234518498617818</v>
+        <v>0.004184363985231712</v>
       </c>
       <c r="BE11">
         <v>1</v>
@@ -2478,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BM11">
-        <v>0.04188140401885155</v>
+        <v>0.004179528336831708</v>
       </c>
       <c r="BN11">
         <v>1</v>
@@ -2507,7 +2480,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.002289432063837179</v>
+        <v>0.002304648651645859</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2528,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.002286920236269118</v>
+        <v>0.002302103573540593</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -2555,7 +2528,7 @@
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.002678080991751191</v>
+        <v>0.002696256012809578</v>
       </c>
       <c r="U12">
         <v>1</v>
@@ -2576,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AC12">
-        <v>0.002675098196514118</v>
+        <v>0.002693233732559575</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -2603,7 +2576,7 @@
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.003246106347933208</v>
+        <v>0.003268605232971938</v>
       </c>
       <c r="AM12">
         <v>1</v>
@@ -2624,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AU12">
-        <v>0.03706716582067807</v>
+        <v>0.003148536856402025</v>
       </c>
       <c r="AV12">
         <v>1</v>
@@ -2645,13 +2618,13 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.03234518498617818</v>
+        <v>0.004184363985231712</v>
       </c>
       <c r="BE12">
         <v>1</v>
@@ -2672,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BM12">
-        <v>0.04188140401885155</v>
+        <v>0.00396345227805902</v>
       </c>
       <c r="BN12">
         <v>1</v>
@@ -2693,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2701,7 +2674,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.002289432063837179</v>
+        <v>0.002304648651645859</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2722,10 +2695,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.002286920236269118</v>
+        <v>0.002290731149394662</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2743,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.002678080991751191</v>
+        <v>0.002696256012809578</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -2770,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AC13">
-        <v>0.002675098196514118</v>
+        <v>0.002639214717866403</v>
       </c>
       <c r="AD13">
         <v>1</v>
@@ -2791,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.003246106347933208</v>
+        <v>0.003268605232971938</v>
       </c>
       <c r="AM13">
         <v>1</v>
@@ -2818,10 +2791,10 @@
         <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AU13">
-        <v>0.03706716582067807</v>
+        <v>0.00291583956233913</v>
       </c>
       <c r="AV13">
         <v>1</v>
@@ -2839,13 +2812,13 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.03234518498617818</v>
+        <v>0.004184363985231712</v>
       </c>
       <c r="BE13">
         <v>1</v>
@@ -2866,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BM13">
-        <v>0.04188140401885155</v>
+        <v>0.003531300160513643</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -2887,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -2895,7 +2868,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.002289432063837179</v>
+        <v>0.002304648651645859</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2916,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.002286920236269118</v>
+        <v>0.0022679863011028</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2937,13 +2910,13 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.002678080991751191</v>
+        <v>0.002696256012809578</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -2964,10 +2937,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AC14">
-        <v>0.002675098196514118</v>
+        <v>0.002531176688480059</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -2985,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.003246106347933208</v>
+        <v>0.003268605232971938</v>
       </c>
       <c r="AM14">
         <v>1</v>
@@ -3012,16 +2985,16 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AU14">
-        <v>0.03706716582067807</v>
+        <v>0.002628529638036984</v>
       </c>
       <c r="AV14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX14">
         <v>1</v>
@@ -3033,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BC14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.03234518498617818</v>
+        <v>0.004184363985231712</v>
       </c>
       <c r="BE14">
         <v>1</v>
@@ -3060,16 +3033,16 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="BM14">
-        <v>0.04188140401885155</v>
+        <v>0.002055809359180145</v>
       </c>
       <c r="BN14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP14">
         <v>1</v>
@@ -3081,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3089,7 +3062,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002289432063837179</v>
+        <v>0.002304648651645859</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3107,37 +3080,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15">
-        <v>0.002286920236269118</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
         <v>0</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.002678080991751191</v>
+        <v>0.002696256012809578</v>
       </c>
       <c r="U15">
         <v>1</v>
@@ -3155,37 +3104,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC15">
-        <v>0.002675098196514118</v>
-      </c>
-      <c r="AD15">
-        <v>1</v>
-      </c>
-      <c r="AE15">
-        <v>1</v>
-      </c>
-      <c r="AF15">
-        <v>1</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI15">
         <v>0</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.003246106347933208</v>
+        <v>0.003268605232971938</v>
       </c>
       <c r="AM15">
         <v>1</v>
@@ -3203,37 +3128,13 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU15">
-        <v>0.03706716582067807</v>
-      </c>
-      <c r="AV15">
-        <v>1</v>
-      </c>
-      <c r="AW15">
-        <v>1</v>
-      </c>
-      <c r="AX15">
-        <v>1</v>
-      </c>
-      <c r="AY15">
-        <v>0</v>
-      </c>
-      <c r="AZ15" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA15">
         <v>0</v>
       </c>
       <c r="BC15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.03234518498617818</v>
+        <v>0.004184363985231712</v>
       </c>
       <c r="BE15">
         <v>1</v>
@@ -3251,30 +3152,6 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>0</v>
-      </c>
-      <c r="BL15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BM15">
-        <v>0.04188140401885155</v>
-      </c>
-      <c r="BN15">
-        <v>1</v>
-      </c>
-      <c r="BO15">
-        <v>1</v>
-      </c>
-      <c r="BP15">
-        <v>1</v>
-      </c>
-      <c r="BQ15">
-        <v>0</v>
-      </c>
-      <c r="BR15" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS15">
         <v>0</v>
       </c>
     </row>
@@ -3283,7 +3160,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.002289432063837179</v>
+        <v>0.002304648651645859</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3302,36 +3179,12 @@
       </c>
       <c r="H16">
         <v>0</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16">
-        <v>0.002275518247762323</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.002678080991751191</v>
+        <v>0.002696256012809578</v>
       </c>
       <c r="U16">
         <v>1</v>
@@ -3350,36 +3203,12 @@
       </c>
       <c r="Z16">
         <v>0</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC16">
-        <v>0.002620938751106839</v>
-      </c>
-      <c r="AD16">
-        <v>1</v>
-      </c>
-      <c r="AE16">
-        <v>1</v>
-      </c>
-      <c r="AF16">
-        <v>1</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>1</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.003246106347933208</v>
+        <v>0.003268605232971938</v>
       </c>
       <c r="AM16">
         <v>1</v>
@@ -3398,36 +3227,12 @@
       </c>
       <c r="AR16">
         <v>0</v>
-      </c>
-      <c r="AT16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU16">
-        <v>0.03611672567142992</v>
-      </c>
-      <c r="AV16">
-        <v>1</v>
-      </c>
-      <c r="AW16">
-        <v>1</v>
-      </c>
-      <c r="AX16">
-        <v>1</v>
-      </c>
-      <c r="AY16">
-        <v>0</v>
-      </c>
-      <c r="AZ16" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA16">
-        <v>1</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.03234518498617818</v>
+        <v>0.004184363985231712</v>
       </c>
       <c r="BE16">
         <v>1</v>
@@ -3447,37 +3252,13 @@
       <c r="BJ16">
         <v>0</v>
       </c>
-      <c r="BL16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM16">
-        <v>0.04080752186452202</v>
-      </c>
-      <c r="BN16">
-        <v>1</v>
-      </c>
-      <c r="BO16">
-        <v>1</v>
-      </c>
-      <c r="BP16">
-        <v>1</v>
-      </c>
-      <c r="BQ16">
-        <v>0</v>
-      </c>
-      <c r="BR16" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS16">
-        <v>1</v>
-      </c>
     </row>
-    <row r="17" spans="1:71">
+    <row r="17" spans="1:62">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.002289432063837179</v>
+        <v>0.002304648651645859</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3496,36 +3277,12 @@
       </c>
       <c r="H17">
         <v>0</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17">
-        <v>0.002264116259255527</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>2</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.002678080991751191</v>
+        <v>0.002696256012809578</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -3544,36 +3301,12 @@
       </c>
       <c r="Z17">
         <v>0</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC17">
-        <v>0.00256677930569956</v>
-      </c>
-      <c r="AD17">
-        <v>1</v>
-      </c>
-      <c r="AE17">
-        <v>1</v>
-      </c>
-      <c r="AF17">
-        <v>1</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>2</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.003246106347933208</v>
+        <v>0.003268605232971938</v>
       </c>
       <c r="AM17">
         <v>1</v>
@@ -3592,36 +3325,12 @@
       </c>
       <c r="AR17">
         <v>0</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU17">
-        <v>0.03516628552218176</v>
-      </c>
-      <c r="AV17">
-        <v>1</v>
-      </c>
-      <c r="AW17">
-        <v>1</v>
-      </c>
-      <c r="AX17">
-        <v>1</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>2</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.03234518498617818</v>
+        <v>0.004184363985231712</v>
       </c>
       <c r="BE17">
         <v>1</v>
@@ -3641,37 +3350,13 @@
       <c r="BJ17">
         <v>0</v>
       </c>
-      <c r="BL17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BM17">
-        <v>0.0397336397101925</v>
-      </c>
-      <c r="BN17">
-        <v>1</v>
-      </c>
-      <c r="BO17">
-        <v>1</v>
-      </c>
-      <c r="BP17">
-        <v>1</v>
-      </c>
-      <c r="BQ17">
-        <v>0</v>
-      </c>
-      <c r="BR17" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS17">
-        <v>2</v>
-      </c>
     </row>
-    <row r="18" spans="1:71">
+    <row r="18" spans="1:62">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.002289432063837179</v>
+        <v>0.002293276227499928</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3689,37 +3374,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18">
-        <v>0.002264116259255527</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.002678080991751191</v>
+        <v>0.002642236998116406</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -3737,37 +3398,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC18">
-        <v>0.00256677930569956</v>
-      </c>
-      <c r="AD18">
-        <v>1</v>
-      </c>
-      <c r="AE18">
-        <v>1</v>
-      </c>
-      <c r="AF18">
-        <v>1</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.003246106347933208</v>
+        <v>0.00315225658594049</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -3785,37 +3422,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU18">
-        <v>0.03516628552218176</v>
-      </c>
-      <c r="AV18">
-        <v>1</v>
-      </c>
-      <c r="AW18">
-        <v>1</v>
-      </c>
-      <c r="AX18">
-        <v>1</v>
-      </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
-      <c r="AZ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.03234518498617818</v>
+        <v>0.003968287926459024</v>
       </c>
       <c r="BE18">
         <v>1</v>
@@ -3833,517 +3446,7 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>0</v>
-      </c>
-      <c r="BL18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BM18">
-        <v>0.0397336397101925</v>
-      </c>
-      <c r="BN18">
-        <v>1</v>
-      </c>
-      <c r="BO18">
-        <v>1</v>
-      </c>
-      <c r="BP18">
-        <v>1</v>
-      </c>
-      <c r="BQ18">
-        <v>0</v>
-      </c>
-      <c r="BR18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:71">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.002289432063837179</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19">
-        <v>0.00222991029373514</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>5</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T19">
-        <v>0.002678080991751191</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC19">
-        <v>0.002404300969477723</v>
-      </c>
-      <c r="AD19">
-        <v>1</v>
-      </c>
-      <c r="AE19">
-        <v>1</v>
-      </c>
-      <c r="AF19">
-        <v>1</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>5</v>
-      </c>
-      <c r="AK19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL19">
-        <v>0.003246106347933208</v>
-      </c>
-      <c r="AM19">
-        <v>1</v>
-      </c>
-      <c r="AN19">
-        <v>1</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>1</v>
-      </c>
-      <c r="AQ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU19">
-        <v>0.0323149650744373</v>
-      </c>
-      <c r="AV19">
-        <v>1</v>
-      </c>
-      <c r="AW19">
-        <v>1</v>
-      </c>
-      <c r="AX19">
-        <v>1</v>
-      </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA19">
-        <v>5</v>
-      </c>
-      <c r="BC19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BD19">
-        <v>0.03234518498617818</v>
-      </c>
-      <c r="BE19">
-        <v>1</v>
-      </c>
-      <c r="BF19">
-        <v>1</v>
-      </c>
-      <c r="BG19">
-        <v>0</v>
-      </c>
-      <c r="BH19">
-        <v>1</v>
-      </c>
-      <c r="BI19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ19">
-        <v>0</v>
-      </c>
-      <c r="BL19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BM19">
-        <v>0.03651199324720391</v>
-      </c>
-      <c r="BN19">
-        <v>1</v>
-      </c>
-      <c r="BO19">
-        <v>1</v>
-      </c>
-      <c r="BP19">
-        <v>1</v>
-      </c>
-      <c r="BQ19">
-        <v>0</v>
-      </c>
-      <c r="BR19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:71">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.002278030075330384</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20">
-        <v>0.00184224268450409</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>39</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T20">
-        <v>0.002623921546343912</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC20">
-        <v>0.0005628798256302367</v>
-      </c>
-      <c r="AD20">
-        <v>1</v>
-      </c>
-      <c r="AE20">
-        <v>1</v>
-      </c>
-      <c r="AF20">
-        <v>1</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>39</v>
-      </c>
-      <c r="AK20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL20">
-        <v>0.0031294552347483</v>
-      </c>
-      <c r="AM20">
-        <v>1</v>
-      </c>
-      <c r="AN20">
-        <v>1</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>1</v>
-      </c>
-      <c r="AQ20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
-        <v>1</v>
-      </c>
-      <c r="AW20">
-        <v>1</v>
-      </c>
-      <c r="AX20">
-        <v>1</v>
-      </c>
-      <c r="AY20">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA20">
-        <v>39</v>
-      </c>
-      <c r="BC20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD20">
-        <v>0.03072792573686927</v>
-      </c>
-      <c r="BE20">
-        <v>1</v>
-      </c>
-      <c r="BF20">
-        <v>1</v>
-      </c>
-      <c r="BG20">
-        <v>0</v>
-      </c>
-      <c r="BH20">
-        <v>1</v>
-      </c>
-      <c r="BI20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ20">
-        <v>1</v>
-      </c>
-      <c r="BL20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BM20">
-        <v>0</v>
-      </c>
-      <c r="BN20">
-        <v>1</v>
-      </c>
-      <c r="BO20">
-        <v>1</v>
-      </c>
-      <c r="BP20">
-        <v>1</v>
-      </c>
-      <c r="BQ20">
-        <v>0</v>
-      </c>
-      <c r="BR20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS20">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:71">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.002061392293701267</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>20</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T21">
-        <v>0.001594892083605611</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>20</v>
-      </c>
-      <c r="AK21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL21">
-        <v>0.000913084084235035</v>
-      </c>
-      <c r="AM21">
-        <v>1</v>
-      </c>
-      <c r="AN21">
-        <v>1</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>1</v>
-      </c>
-      <c r="AQ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>20</v>
-      </c>
-      <c r="BC21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BD21">
-        <v>0</v>
-      </c>
-      <c r="BE21">
-        <v>1</v>
-      </c>
-      <c r="BF21">
-        <v>1</v>
-      </c>
-      <c r="BG21">
-        <v>0</v>
-      </c>
-      <c r="BH21">
-        <v>1</v>
-      </c>
-      <c r="BI21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ21">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
